--- a/biology/Botanique/Vin_bleu_des_Vosges/Vin_bleu_des_Vosges.xlsx
+++ b/biology/Botanique/Vin_bleu_des_Vosges/Vin_bleu_des_Vosges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vin bleu des Vosges est un vin rouge foncé aux reflets bleutés, produit par une cave coopérative au sein de la commune de La Neuveville-sous-Montfort dans le département des Vosges[1],[2],[3].
-Il est appelé ainsi pour le différencier des vins bleus de mauvaise qualité servis dans les lieux festifs parisiens aux XVIIIe et XIXe siècles, ainsi que ceux apparus à la fin des années 2010 en Espagne, en Corse et à Sète notamment, qui sont d'une couleur bleue turquoise, mais qui se sont révélés ne pas être du vin parce qu'ils contenaient en réalité des colorants[4].
-Le vin bleu des Vosges est élaboré à partir des cépages hybrides Léon Millot ou Kuhlmann délicat, et Oberlin noir plus puissant. Ils sont adaptés au rude climat vosgien. Le vignoble ne couvre que 5 hectares contre 40 au début du XXe siècle avant la venue du phylloxéra[5].
-Le raisin est tout d'abord égrappé, puis mis à macérer pendant 3 jours avant une vinification en cuve. Le vin doit être aéré et si possible carafé avant d'être dégusté. Puis servi à 14°-16° pour délivrer ses arômes fruités[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin bleu des Vosges est un vin rouge foncé aux reflets bleutés, produit par une cave coopérative au sein de la commune de La Neuveville-sous-Montfort dans le département des Vosges.
+Il est appelé ainsi pour le différencier des vins bleus de mauvaise qualité servis dans les lieux festifs parisiens aux XVIIIe et XIXe siècles, ainsi que ceux apparus à la fin des années 2010 en Espagne, en Corse et à Sète notamment, qui sont d'une couleur bleue turquoise, mais qui se sont révélés ne pas être du vin parce qu'ils contenaient en réalité des colorants.
+Le vin bleu des Vosges est élaboré à partir des cépages hybrides Léon Millot ou Kuhlmann délicat, et Oberlin noir plus puissant. Ils sont adaptés au rude climat vosgien. Le vignoble ne couvre que 5 hectares contre 40 au début du XXe siècle avant la venue du phylloxéra.
+Le raisin est tout d'abord égrappé, puis mis à macérer pendant 3 jours avant une vinification en cuve. Le vin doit être aéré et si possible carafé avant d'être dégusté. Puis servi à 14°-16° pour délivrer ses arômes fruités.
 </t>
         </is>
       </c>
